--- a/post/DTM R3 DB Great-Little Abaco MSLA V5.xlsx
+++ b/post/DTM R3 DB Great-Little Abaco MSLA V5.xlsx
@@ -27150,7 +27150,7 @@
         <v>1.0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.2387387387387387</v>
+        <v>1.2640045963803506</v>
       </c>
       <c r="V2" t="n">
         <v>1.0</v>
@@ -27266,7 +27266,7 @@
         <v>1.0</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="W3" t="n">
         <v>0.28571428571428575</v>
@@ -27287,13 +27287,13 @@
         <v>0.8691158561337544</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.5</v>
+        <v>2.0</v>
       </c>
       <c r="AD3" t="n">
-        <v>4.0</v>
+        <v>3.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="AF3" t="n">
         <v>1.0</v>
@@ -27376,7 +27376,7 @@
         <v>1.0</v>
       </c>
       <c r="U4" t="n">
-        <v>1.2779552715654952</v>
+        <v>1.2987012987012987</v>
       </c>
       <c r="V4" t="n">
         <v>1.0</v>
@@ -27486,13 +27486,13 @@
         <v>4.0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.918918918918919</v>
+        <v>0.9189189189189191</v>
       </c>
       <c r="U5" t="n">
-        <v>1.0517090271691498</v>
+        <v>1.0327022375215147</v>
       </c>
       <c r="V5" t="n">
-        <v>0.8500000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="W5" t="n">
         <v>0.7792207792207793</v>
@@ -27516,7 +27516,7 @@
         <v>7.0</v>
       </c>
       <c r="AD5" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="AE5" t="n">
         <v>7.0</v>
@@ -27602,7 +27602,7 @@
         <v>1.0</v>
       </c>
       <c r="U6" t="n">
-        <v>1.0067114093959733</v>
+        <v>1.001669449081803</v>
       </c>
       <c r="V6" t="n">
         <v>1.0</v>
@@ -27629,7 +27629,7 @@
         <v>15.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>11.5</v>
+        <v>9.0</v>
       </c>
       <c r="AE6" t="n">
         <v>15.5</v>
@@ -27718,7 +27718,7 @@
         <v>1.0</v>
       </c>
       <c r="V7" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="W7" t="n">
         <v>0.3333333333333333</v>
@@ -27739,13 +27739,13 @@
         <v>0.8391676650908648</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.5</v>
+        <v>2.0</v>
       </c>
       <c r="AD7" t="n">
-        <v>4.0</v>
+        <v>3.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="AF7" t="n">
         <v>2.0</v>
@@ -27828,7 +27828,7 @@
         <v>1.0</v>
       </c>
       <c r="U8" t="n">
-        <v>1.0291595197255574</v>
+        <v>1.0371650821089025</v>
       </c>
       <c r="V8" t="n">
         <v>1.0</v>
@@ -27855,7 +27855,7 @@
         <v>15.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="AE8" t="n">
         <v>15.5</v>
@@ -27941,7 +27941,7 @@
         <v>1.0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.0075566750629723</v>
+        <v>1.0050251256281406</v>
       </c>
       <c r="V9" t="n">
         <v>1.0</v>
@@ -27968,7 +27968,7 @@
         <v>15.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
       <c r="AE9" t="n">
         <v>15.5</v>
@@ -28054,7 +28054,7 @@
         <v>1.0</v>
       </c>
       <c r="U10" t="n">
-        <v>1.0062893081761006</v>
+        <v>1.0012515644555695</v>
       </c>
       <c r="V10" t="n">
         <v>1.0</v>
@@ -28081,7 +28081,7 @@
         <v>15.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>10.0</v>
+        <v>7.5</v>
       </c>
       <c r="AE10" t="n">
         <v>15.5</v>
@@ -28167,7 +28167,7 @@
         <v>1.0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.1494252873563218</v>
+        <v>1.1267605633802817</v>
       </c>
       <c r="V11" t="n">
         <v>1.0</v>
@@ -28280,7 +28280,7 @@
         <v>1.0</v>
       </c>
       <c r="U12" t="n">
-        <v>1.0067114093959733</v>
+        <v>1.0109519797809605</v>
       </c>
       <c r="V12" t="n">
         <v>1.0</v>
@@ -28307,7 +28307,7 @@
         <v>15.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>11.5</v>
+        <v>13.0</v>
       </c>
       <c r="AE12" t="n">
         <v>15.5</v>
@@ -28390,13 +28390,13 @@
         <v>2.0</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7999999999999998</v>
+        <v>0.8</v>
       </c>
       <c r="U13" t="n">
         <v>1.0</v>
       </c>
       <c r="V13" t="n">
-        <v>0.7499999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="W13" t="n">
         <v>0.37037037037037035</v>
@@ -28420,7 +28420,7 @@
         <v>5.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>4.0</v>
+        <v>3.5</v>
       </c>
       <c r="AE13" t="n">
         <v>5.5</v>
@@ -28506,7 +28506,7 @@
         <v>1.0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.0025062656641603</v>
+        <v>1.0012515644555695</v>
       </c>
       <c r="V14" t="n">
         <v>1.0</v>
@@ -28533,7 +28533,7 @@
         <v>15.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>8.0</v>
+        <v>7.5</v>
       </c>
       <c r="AE14" t="n">
         <v>15.5</v>
@@ -28619,7 +28619,7 @@
         <v>1.0</v>
       </c>
       <c r="U15" t="n">
-        <v>1.2738853503184713</v>
+        <v>1.3114754098360657</v>
       </c>
       <c r="V15" t="n">
         <v>1.0</v>
@@ -28646,7 +28646,7 @@
         <v>15.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="AE15" t="n">
         <v>15.5</v>
@@ -28759,7 +28759,7 @@
         <v>15.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>4.0</v>
+        <v>3.5</v>
       </c>
       <c r="AE16" t="n">
         <v>15.5</v>
@@ -28845,7 +28845,7 @@
         <v>1.0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.0050251256281406</v>
+        <v>1.0101010101010102</v>
       </c>
       <c r="V17" t="n">
         <v>1.0</v>
@@ -28872,7 +28872,7 @@
         <v>15.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="AE17" t="n">
         <v>15.5</v>
@@ -28958,10 +28958,10 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="U18" t="n">
-        <v>1.0</v>
+        <v>1.00647016534867</v>
       </c>
       <c r="V18" t="n">
-        <v>0.6666666666666665</v>
+        <v>0.6666666666666669</v>
       </c>
       <c r="W18" t="n">
         <v>0.5166051660516605</v>
@@ -28985,10 +28985,10 @@
         <v>4.0</v>
       </c>
       <c r="AD18" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AE18" t="n">
         <v>4.0</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1.0</v>
       </c>
       <c r="AF18" t="n">
         <v>9.0</v>
@@ -29071,7 +29071,7 @@
         <v>1.0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.1639185257032008</v>
+        <v>1.1764705882352942</v>
       </c>
       <c r="V19" t="n">
         <v>1.0</v>
@@ -29181,13 +29181,13 @@
         <v>2.0</v>
       </c>
       <c r="T20" t="n">
-        <v>0.6666666666666665</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="U20" t="n">
         <v>1.0</v>
       </c>
       <c r="V20" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="W20" t="n">
         <v>0.4411764705882352</v>
@@ -29208,13 +29208,13 @@
         <v>0.7561668131134467</v>
       </c>
       <c r="AC20" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="AD20" t="n">
-        <v>4.0</v>
+        <v>3.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="AF20" t="n">
         <v>6.0</v>
@@ -29297,7 +29297,7 @@
         <v>1.0</v>
       </c>
       <c r="U21" t="n">
-        <v>1.2822409626670612</v>
+        <v>1.266501047298943</v>
       </c>
       <c r="V21" t="n">
         <v>1.0</v>
@@ -29324,7 +29324,7 @@
         <v>15.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="AE21" t="n">
         <v>15.5</v>
@@ -29407,13 +29407,13 @@
         <v>2.0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7999999999999998</v>
+        <v>0.8</v>
       </c>
       <c r="U22" t="n">
         <v>1.0</v>
       </c>
       <c r="V22" t="n">
-        <v>0.7499999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="W22" t="n">
         <v>0.37037037037037035</v>
@@ -29437,7 +29437,7 @@
         <v>5.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>4.0</v>
+        <v>3.5</v>
       </c>
       <c r="AE22" t="n">
         <v>5.5</v>
@@ -29523,7 +29523,7 @@
         <v>1.0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.0178117048346056</v>
+        <v>1.0247651579846284</v>
       </c>
       <c r="V23" t="n">
         <v>1.0</v>
@@ -29636,7 +29636,7 @@
         <v>1.0</v>
       </c>
       <c r="U24" t="n">
-        <v>1.0723860589812333</v>
+        <v>1.0676156583629894</v>
       </c>
       <c r="V24" t="n">
         <v>1.0</v>

--- a/post/DTM R3 DB Great-Little Abaco MSLA V5.xlsx
+++ b/post/DTM R3 DB Great-Little Abaco MSLA V5.xlsx
@@ -27150,7 +27150,7 @@
         <v>1.0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.2640045963803506</v>
+        <v>1.2952605239917574</v>
       </c>
       <c r="V2" t="n">
         <v>1.0</v>
@@ -27177,7 +27177,7 @@
         <v>15.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="AE2" t="n">
         <v>15.5</v>
@@ -27376,7 +27376,7 @@
         <v>1.0</v>
       </c>
       <c r="U4" t="n">
-        <v>1.2987012987012987</v>
+        <v>1.2084592145015105</v>
       </c>
       <c r="V4" t="n">
         <v>1.0</v>
@@ -27403,7 +27403,7 @@
         <v>15.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="AE4" t="n">
         <v>15.5</v>
@@ -27489,7 +27489,7 @@
         <v>0.9189189189189191</v>
       </c>
       <c r="U5" t="n">
-        <v>1.0327022375215147</v>
+        <v>1.044841097083152</v>
       </c>
       <c r="V5" t="n">
         <v>0.85</v>
@@ -27516,7 +27516,7 @@
         <v>7.0</v>
       </c>
       <c r="AD5" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="AE5" t="n">
         <v>7.0</v>
@@ -27602,7 +27602,7 @@
         <v>1.0</v>
       </c>
       <c r="U6" t="n">
-        <v>1.001669449081803</v>
+        <v>1.0118043844856661</v>
       </c>
       <c r="V6" t="n">
         <v>1.0</v>
@@ -27629,7 +27629,7 @@
         <v>15.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="AE6" t="n">
         <v>15.5</v>
@@ -27828,7 +27828,7 @@
         <v>1.0</v>
       </c>
       <c r="U8" t="n">
-        <v>1.0371650821089025</v>
+        <v>1.0178117048346056</v>
       </c>
       <c r="V8" t="n">
         <v>1.0</v>
@@ -27855,7 +27855,7 @@
         <v>15.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>16.0</v>
+        <v>12.5</v>
       </c>
       <c r="AE8" t="n">
         <v>15.5</v>
@@ -27941,7 +27941,7 @@
         <v>1.0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.0050251256281406</v>
+        <v>1.0178117048346056</v>
       </c>
       <c r="V9" t="n">
         <v>1.0</v>
@@ -27968,7 +27968,7 @@
         <v>15.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>10.0</v>
+        <v>12.5</v>
       </c>
       <c r="AE9" t="n">
         <v>15.5</v>
@@ -28054,7 +28054,7 @@
         <v>1.0</v>
       </c>
       <c r="U10" t="n">
-        <v>1.0012515644555695</v>
+        <v>1.011378002528445</v>
       </c>
       <c r="V10" t="n">
         <v>1.0</v>
@@ -28081,7 +28081,7 @@
         <v>15.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>7.5</v>
+        <v>9.0</v>
       </c>
       <c r="AE10" t="n">
         <v>15.5</v>
@@ -28167,7 +28167,7 @@
         <v>1.0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.1267605633802817</v>
+        <v>1.1527377521613833</v>
       </c>
       <c r="V11" t="n">
         <v>1.0</v>
@@ -28280,7 +28280,7 @@
         <v>1.0</v>
       </c>
       <c r="U12" t="n">
-        <v>1.0109519797809605</v>
+        <v>1.0067114093959733</v>
       </c>
       <c r="V12" t="n">
         <v>1.0</v>
@@ -28307,7 +28307,7 @@
         <v>15.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>13.0</v>
+        <v>8.0</v>
       </c>
       <c r="AE12" t="n">
         <v>15.5</v>
@@ -28506,7 +28506,7 @@
         <v>1.0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.0012515644555695</v>
+        <v>1.0126582278481011</v>
       </c>
       <c r="V14" t="n">
         <v>1.0</v>
@@ -28533,7 +28533,7 @@
         <v>15.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>7.5</v>
+        <v>11.0</v>
       </c>
       <c r="AE14" t="n">
         <v>15.5</v>
@@ -28619,7 +28619,7 @@
         <v>1.0</v>
       </c>
       <c r="U15" t="n">
-        <v>1.3114754098360657</v>
+        <v>1.2269938650306749</v>
       </c>
       <c r="V15" t="n">
         <v>1.0</v>
@@ -28646,7 +28646,7 @@
         <v>15.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="AE15" t="n">
         <v>15.5</v>
@@ -28845,7 +28845,7 @@
         <v>1.0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.0101010101010102</v>
+        <v>1.019108280254777</v>
       </c>
       <c r="V17" t="n">
         <v>1.0</v>
@@ -28872,7 +28872,7 @@
         <v>15.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="AE17" t="n">
         <v>15.5</v>
@@ -28958,7 +28958,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="U18" t="n">
-        <v>1.00647016534867</v>
+        <v>1.0021474588403723</v>
       </c>
       <c r="V18" t="n">
         <v>0.6666666666666669</v>
@@ -28985,7 +28985,7 @@
         <v>4.0</v>
       </c>
       <c r="AD18" t="n">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="AE18" t="n">
         <v>4.0</v>
@@ -29071,7 +29071,7 @@
         <v>1.0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.1764705882352942</v>
+        <v>1.171875</v>
       </c>
       <c r="V19" t="n">
         <v>1.0</v>
@@ -29297,7 +29297,7 @@
         <v>1.0</v>
       </c>
       <c r="U21" t="n">
-        <v>1.266501047298943</v>
+        <v>1.2972757209859296</v>
       </c>
       <c r="V21" t="n">
         <v>1.0</v>
@@ -29324,7 +29324,7 @@
         <v>15.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="AE21" t="n">
         <v>15.5</v>
@@ -29523,7 +29523,7 @@
         <v>1.0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.0247651579846284</v>
+        <v>1.0186757215619695</v>
       </c>
       <c r="V23" t="n">
         <v>1.0</v>
@@ -29636,7 +29636,7 @@
         <v>1.0</v>
       </c>
       <c r="U24" t="n">
-        <v>1.0676156583629894</v>
+        <v>1.0999083409715857</v>
       </c>
       <c r="V24" t="n">
         <v>1.0</v>

--- a/post/DTM R3 DB Great-Little Abaco MSLA V5.xlsx
+++ b/post/DTM R3 DB Great-Little Abaco MSLA V5.xlsx
@@ -27150,7 +27150,7 @@
         <v>1.0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.2952605239917574</v>
+        <v>1.3130408833184124</v>
       </c>
       <c r="V2" t="n">
         <v>1.0</v>
@@ -27177,7 +27177,7 @@
         <v>15.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="AE2" t="n">
         <v>15.5</v>
@@ -27376,7 +27376,7 @@
         <v>1.0</v>
       </c>
       <c r="U4" t="n">
-        <v>1.2084592145015105</v>
+        <v>1.3071895424836601</v>
       </c>
       <c r="V4" t="n">
         <v>1.0</v>
@@ -27403,7 +27403,7 @@
         <v>15.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="AE4" t="n">
         <v>15.5</v>
@@ -27489,7 +27489,7 @@
         <v>0.9189189189189191</v>
       </c>
       <c r="U5" t="n">
-        <v>1.044841097083152</v>
+        <v>1.05866784296427</v>
       </c>
       <c r="V5" t="n">
         <v>0.85</v>
@@ -27516,7 +27516,7 @@
         <v>7.0</v>
       </c>
       <c r="AD5" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="AE5" t="n">
         <v>7.0</v>
@@ -27602,7 +27602,7 @@
         <v>1.0</v>
       </c>
       <c r="U6" t="n">
-        <v>1.0118043844856661</v>
+        <v>1.0067114093959733</v>
       </c>
       <c r="V6" t="n">
         <v>1.0</v>
@@ -27629,7 +27629,7 @@
         <v>15.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="AE6" t="n">
         <v>15.5</v>
@@ -27828,7 +27828,7 @@
         <v>1.0</v>
       </c>
       <c r="U8" t="n">
-        <v>1.0178117048346056</v>
+        <v>1.0335917312661498</v>
       </c>
       <c r="V8" t="n">
         <v>1.0</v>
@@ -27855,7 +27855,7 @@
         <v>15.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>12.5</v>
+        <v>14.0</v>
       </c>
       <c r="AE8" t="n">
         <v>15.5</v>
@@ -27941,7 +27941,7 @@
         <v>1.0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.0178117048346056</v>
+        <v>1.0025062656641603</v>
       </c>
       <c r="V9" t="n">
         <v>1.0</v>
@@ -27968,7 +27968,7 @@
         <v>15.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE9" t="n">
         <v>15.5</v>
@@ -28054,7 +28054,7 @@
         <v>1.0</v>
       </c>
       <c r="U10" t="n">
-        <v>1.011378002528445</v>
+        <v>1.0050251256281406</v>
       </c>
       <c r="V10" t="n">
         <v>1.0</v>
@@ -28081,7 +28081,7 @@
         <v>15.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="AE10" t="n">
         <v>15.5</v>
@@ -28167,7 +28167,7 @@
         <v>1.0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.1527377521613833</v>
+        <v>1.1363636363636365</v>
       </c>
       <c r="V11" t="n">
         <v>1.0</v>
@@ -28280,7 +28280,7 @@
         <v>1.0</v>
       </c>
       <c r="U12" t="n">
-        <v>1.0067114093959733</v>
+        <v>1.0109519797809605</v>
       </c>
       <c r="V12" t="n">
         <v>1.0</v>
@@ -28307,7 +28307,7 @@
         <v>15.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
       <c r="AE12" t="n">
         <v>15.5</v>
@@ -28506,7 +28506,7 @@
         <v>1.0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.0126582278481011</v>
+        <v>1.0037641154328734</v>
       </c>
       <c r="V14" t="n">
         <v>1.0</v>
@@ -28533,7 +28533,7 @@
         <v>15.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="AE14" t="n">
         <v>15.5</v>
@@ -28619,7 +28619,7 @@
         <v>1.0</v>
       </c>
       <c r="U15" t="n">
-        <v>1.2269938650306749</v>
+        <v>1.2698412698412698</v>
       </c>
       <c r="V15" t="n">
         <v>1.0</v>
@@ -28646,7 +28646,7 @@
         <v>15.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="AE15" t="n">
         <v>15.5</v>
@@ -28845,7 +28845,7 @@
         <v>1.0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.019108280254777</v>
+        <v>1.0025062656641603</v>
       </c>
       <c r="V17" t="n">
         <v>1.0</v>
@@ -28872,7 +28872,7 @@
         <v>15.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>15.0</v>
+        <v>7.5</v>
       </c>
       <c r="AE17" t="n">
         <v>15.5</v>
@@ -28958,7 +28958,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="U18" t="n">
-        <v>1.0021474588403723</v>
+        <v>1.003584229390681</v>
       </c>
       <c r="V18" t="n">
         <v>0.6666666666666669</v>
@@ -28985,7 +28985,7 @@
         <v>4.0</v>
       </c>
       <c r="AD18" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="AE18" t="n">
         <v>4.0</v>
@@ -29071,7 +29071,7 @@
         <v>1.0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.171875</v>
+        <v>1.1846001974333662</v>
       </c>
       <c r="V19" t="n">
         <v>1.0</v>
@@ -29297,7 +29297,7 @@
         <v>1.0</v>
       </c>
       <c r="U21" t="n">
-        <v>1.2972757209859296</v>
+        <v>1.2834435778457893</v>
       </c>
       <c r="V21" t="n">
         <v>1.0</v>
@@ -29324,7 +29324,7 @@
         <v>15.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="AE21" t="n">
         <v>15.5</v>
@@ -29523,7 +29523,7 @@
         <v>1.0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.0186757215619695</v>
+        <v>1.0389610389610389</v>
       </c>
       <c r="V23" t="n">
         <v>1.0</v>
@@ -29550,7 +29550,7 @@
         <v>15.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="AE23" t="n">
         <v>15.5</v>
@@ -29636,7 +29636,7 @@
         <v>1.0</v>
       </c>
       <c r="U24" t="n">
-        <v>1.0999083409715857</v>
+        <v>1.0535557506584723</v>
       </c>
       <c r="V24" t="n">
         <v>1.0</v>
@@ -29663,7 +29663,7 @@
         <v>15.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="AE24" t="n">
         <v>15.5</v>
